--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Inhba-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Inhba-Eng.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.288150666666666</v>
+        <v>0.1285113333333333</v>
       </c>
       <c r="H2">
-        <v>6.864451999999999</v>
+        <v>0.385534</v>
       </c>
       <c r="I2">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="J2">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>150.1098686666667</v>
+        <v>247.0944516666667</v>
       </c>
       <c r="N2">
-        <v>450.329606</v>
+        <v>741.283355</v>
       </c>
       <c r="O2">
-        <v>0.7276622610660995</v>
+        <v>0.8050739182622993</v>
       </c>
       <c r="P2">
-        <v>0.7276622610660997</v>
+        <v>0.8050739182622993</v>
       </c>
       <c r="Q2">
-        <v>343.4739960628791</v>
+        <v>31.75443744295223</v>
       </c>
       <c r="R2">
-        <v>3091.265964565912</v>
+        <v>285.78993698657</v>
       </c>
       <c r="S2">
-        <v>0.2884612591422367</v>
+        <v>0.03018384130805508</v>
       </c>
       <c r="T2">
-        <v>0.2884612591422368</v>
+        <v>0.03018384130805509</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.288150666666666</v>
+        <v>0.1285113333333333</v>
       </c>
       <c r="H3">
-        <v>6.864451999999999</v>
+        <v>0.385534</v>
       </c>
       <c r="I3">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="J3">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>126.9743</v>
       </c>
       <c r="O3">
-        <v>0.2051706239258123</v>
+        <v>0.1379009747488701</v>
       </c>
       <c r="P3">
-        <v>0.2051706239258124</v>
+        <v>0.13790097474887</v>
       </c>
       <c r="Q3">
-        <v>96.84544306484443</v>
+        <v>5.439212197355556</v>
       </c>
       <c r="R3">
-        <v>871.6089875835999</v>
+        <v>48.95290977619999</v>
       </c>
       <c r="S3">
-        <v>0.08133412942142672</v>
+        <v>0.005170185052113275</v>
       </c>
       <c r="T3">
-        <v>0.08133412942142675</v>
+        <v>0.005170185052113275</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.288150666666666</v>
+        <v>0.1285113333333333</v>
       </c>
       <c r="H4">
-        <v>6.864451999999999</v>
+        <v>0.385534</v>
       </c>
       <c r="I4">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="J4">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.915377333333334</v>
+        <v>11.590146</v>
       </c>
       <c r="N4">
-        <v>26.746132</v>
+        <v>34.770438</v>
       </c>
       <c r="O4">
-        <v>0.04321756914621411</v>
+        <v>0.03776258103132013</v>
       </c>
       <c r="P4">
-        <v>0.04321756914621412</v>
+        <v>0.03776258103132013</v>
       </c>
       <c r="Q4">
-        <v>20.39972658885155</v>
+        <v>1.489465115988</v>
       </c>
       <c r="R4">
-        <v>183.597539299664</v>
+        <v>13.405186043892</v>
       </c>
       <c r="S4">
-        <v>0.017132391055596</v>
+        <v>0.001415795155421462</v>
       </c>
       <c r="T4">
-        <v>0.017132391055596</v>
+        <v>0.001415795155421463</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.288150666666666</v>
+        <v>0.1285113333333333</v>
       </c>
       <c r="H5">
-        <v>6.864451999999999</v>
+        <v>0.385534</v>
       </c>
       <c r="I5">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="J5">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.940565666666667</v>
+        <v>5.912082333333333</v>
       </c>
       <c r="N5">
-        <v>14.821697</v>
+        <v>17.736247</v>
       </c>
       <c r="O5">
-        <v>0.02394954586187395</v>
+        <v>0.01926252595751047</v>
       </c>
       <c r="P5">
-        <v>0.02394954586187395</v>
+        <v>0.01926252595751047</v>
       </c>
       <c r="Q5">
-        <v>11.30475862389378</v>
+        <v>0.7597695834331111</v>
       </c>
       <c r="R5">
-        <v>101.742827615044</v>
+        <v>6.837926250898</v>
       </c>
       <c r="S5">
-        <v>0.009494124575155541</v>
+        <v>0.000722190861615216</v>
       </c>
       <c r="T5">
-        <v>0.009494124575155544</v>
+        <v>0.0007221908616152161</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>7.766681999999999</v>
       </c>
       <c r="I6">
-        <v>0.4485256605643812</v>
+        <v>0.7552862722193517</v>
       </c>
       <c r="J6">
-        <v>0.4485256605643813</v>
+        <v>0.755286272219352</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>150.1098686666667</v>
+        <v>247.0944516666667</v>
       </c>
       <c r="N6">
-        <v>450.329606</v>
+        <v>741.283355</v>
       </c>
       <c r="O6">
-        <v>0.7276622610660995</v>
+        <v>0.8050739182622993</v>
       </c>
       <c r="P6">
-        <v>0.7276622610660997</v>
+        <v>0.8050739182622993</v>
       </c>
       <c r="Q6">
-        <v>388.6185383319213</v>
+        <v>639.7013433531233</v>
       </c>
       <c r="R6">
-        <v>3497.566844987292</v>
+        <v>5757.312090178109</v>
       </c>
       <c r="S6">
-        <v>0.3263751963124435</v>
+        <v>0.6080612785853592</v>
       </c>
       <c r="T6">
-        <v>0.3263751963124436</v>
+        <v>0.6080612785853593</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>7.766681999999999</v>
       </c>
       <c r="I7">
-        <v>0.4485256605643812</v>
+        <v>0.7552862722193517</v>
       </c>
       <c r="J7">
-        <v>0.4485256605643813</v>
+        <v>0.755286272219352</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>126.9743</v>
       </c>
       <c r="O7">
-        <v>0.2051706239258123</v>
+        <v>0.1379009747488701</v>
       </c>
       <c r="P7">
-        <v>0.2051706239258124</v>
+        <v>0.13790097474887</v>
       </c>
       <c r="Q7">
         <v>109.5743344747333</v>
@@ -883,10 +883,10 @@
         <v>986.1690102726</v>
       </c>
       <c r="S7">
-        <v>0.09202428962473122</v>
+        <v>0.104154713153489</v>
       </c>
       <c r="T7">
-        <v>0.09202428962473123</v>
+        <v>0.104154713153489</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>7.766681999999999</v>
       </c>
       <c r="I8">
-        <v>0.4485256605643812</v>
+        <v>0.7552862722193517</v>
       </c>
       <c r="J8">
-        <v>0.4485256605643813</v>
+        <v>0.755286272219352</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.915377333333334</v>
+        <v>11.590146</v>
       </c>
       <c r="N8">
-        <v>26.746132</v>
+        <v>34.770438</v>
       </c>
       <c r="O8">
-        <v>0.04321756914621411</v>
+        <v>0.03776258103132013</v>
       </c>
       <c r="P8">
-        <v>0.04321756914621412</v>
+        <v>0.03776258103132013</v>
       </c>
       <c r="Q8">
-        <v>23.08096688600267</v>
+        <v>30.005659438524</v>
       </c>
       <c r="R8">
-        <v>207.728701974024</v>
+        <v>270.050934946716</v>
       </c>
       <c r="S8">
-        <v>0.01938418874929251</v>
+        <v>0.02852155905652698</v>
       </c>
       <c r="T8">
-        <v>0.01938418874929251</v>
+        <v>0.02852155905652699</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>7.766681999999999</v>
       </c>
       <c r="I9">
-        <v>0.4485256605643812</v>
+        <v>0.7552862722193517</v>
       </c>
       <c r="J9">
-        <v>0.4485256605643813</v>
+        <v>0.755286272219352</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.940565666666667</v>
+        <v>5.912082333333333</v>
       </c>
       <c r="N9">
-        <v>14.821697</v>
+        <v>17.736247</v>
       </c>
       <c r="O9">
-        <v>0.02394954586187395</v>
+        <v>0.01926252595751047</v>
       </c>
       <c r="P9">
-        <v>0.02394954586187395</v>
+        <v>0.01926252595751047</v>
       </c>
       <c r="Q9">
-        <v>12.79060081103933</v>
+        <v>15.30575448027266</v>
       </c>
       <c r="R9">
-        <v>115.115407299354</v>
+        <v>137.751790322454</v>
       </c>
       <c r="S9">
-        <v>0.01074198587791395</v>
+        <v>0.01454872142397658</v>
       </c>
       <c r="T9">
-        <v>0.01074198587791396</v>
+        <v>0.01454872142397659</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5826116666666666</v>
+        <v>0.692415</v>
       </c>
       <c r="H10">
-        <v>1.747835</v>
+        <v>2.077245</v>
       </c>
       <c r="I10">
-        <v>0.1009374206298835</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="J10">
-        <v>0.1009374206298836</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>150.1098686666667</v>
+        <v>247.0944516666667</v>
       </c>
       <c r="N10">
-        <v>450.329606</v>
+        <v>741.283355</v>
       </c>
       <c r="O10">
-        <v>0.7276622610660995</v>
+        <v>0.8050739182622993</v>
       </c>
       <c r="P10">
-        <v>0.7276622610660997</v>
+        <v>0.8050739182622993</v>
       </c>
       <c r="Q10">
-        <v>87.45576076700111</v>
+        <v>171.091904750775</v>
       </c>
       <c r="R10">
-        <v>787.1018469030099</v>
+        <v>1539.827142756975</v>
       </c>
       <c r="S10">
-        <v>0.07344835172172103</v>
+        <v>0.1626295824439631</v>
       </c>
       <c r="T10">
-        <v>0.07344835172172104</v>
+        <v>0.1626295824439632</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5826116666666666</v>
+        <v>0.692415</v>
       </c>
       <c r="H11">
-        <v>1.747835</v>
+        <v>2.077245</v>
       </c>
       <c r="I11">
-        <v>0.1009374206298835</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="J11">
-        <v>0.1009374206298836</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>126.9743</v>
       </c>
       <c r="O11">
-        <v>0.2051706239258123</v>
+        <v>0.1379009747488701</v>
       </c>
       <c r="P11">
-        <v>0.2051706239258124</v>
+        <v>0.13790097474887</v>
       </c>
       <c r="Q11">
-        <v>24.65890284894444</v>
+        <v>29.3063033115</v>
       </c>
       <c r="R11">
-        <v>221.9301256405</v>
+        <v>263.7567298035</v>
       </c>
       <c r="S11">
-        <v>0.02070939356809537</v>
+        <v>0.02785679356056027</v>
       </c>
       <c r="T11">
-        <v>0.02070939356809538</v>
+        <v>0.02785679356056027</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5826116666666666</v>
+        <v>0.692415</v>
       </c>
       <c r="H12">
-        <v>1.747835</v>
+        <v>2.077245</v>
       </c>
       <c r="I12">
-        <v>0.1009374206298835</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="J12">
-        <v>0.1009374206298836</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.915377333333334</v>
+        <v>11.590146</v>
       </c>
       <c r="N12">
-        <v>26.746132</v>
+        <v>34.770438</v>
       </c>
       <c r="O12">
-        <v>0.04321756914621411</v>
+        <v>0.03776258103132013</v>
       </c>
       <c r="P12">
-        <v>0.04321756914621412</v>
+        <v>0.03776258103132013</v>
       </c>
       <c r="Q12">
-        <v>5.194202847135555</v>
+        <v>8.025190942589999</v>
       </c>
       <c r="R12">
-        <v>46.74782562421999</v>
+        <v>72.22671848330999</v>
       </c>
       <c r="S12">
-        <v>0.004362269955512491</v>
+        <v>0.00762825952477202</v>
       </c>
       <c r="T12">
-        <v>0.004362269955512492</v>
+        <v>0.007628259524772021</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5826116666666666</v>
+        <v>0.692415</v>
       </c>
       <c r="H13">
-        <v>1.747835</v>
+        <v>2.077245</v>
       </c>
       <c r="I13">
-        <v>0.1009374206298835</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="J13">
-        <v>0.1009374206298836</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.940565666666667</v>
+        <v>5.912082333333333</v>
       </c>
       <c r="N13">
-        <v>14.821697</v>
+        <v>17.736247</v>
       </c>
       <c r="O13">
-        <v>0.02394954586187395</v>
+        <v>0.01926252595751047</v>
       </c>
       <c r="P13">
-        <v>0.02394954586187395</v>
+        <v>0.01926252595751047</v>
       </c>
       <c r="Q13">
-        <v>2.878431197332778</v>
+        <v>4.093614488835</v>
       </c>
       <c r="R13">
-        <v>25.905880775995</v>
+        <v>36.842530399515</v>
       </c>
       <c r="S13">
-        <v>0.002417405384554657</v>
+        <v>0.00389114152405728</v>
       </c>
       <c r="T13">
-        <v>0.002417405384554658</v>
+        <v>0.003891141524057281</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.3123523333333333</v>
+        <v>0.01787866666666667</v>
       </c>
       <c r="H14">
-        <v>0.9370569999999999</v>
+        <v>0.053636</v>
       </c>
       <c r="I14">
-        <v>0.05411501461132016</v>
+        <v>0.005215938350090445</v>
       </c>
       <c r="J14">
-        <v>0.05411501461132018</v>
+        <v>0.005215938350090446</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>150.1098686666667</v>
+        <v>247.0944516666667</v>
       </c>
       <c r="N14">
-        <v>450.329606</v>
+        <v>741.283355</v>
       </c>
       <c r="O14">
-        <v>0.7276622610660995</v>
+        <v>0.8050739182622993</v>
       </c>
       <c r="P14">
-        <v>0.7276622610660997</v>
+        <v>0.8050739182622993</v>
       </c>
       <c r="Q14">
-        <v>46.88716773439355</v>
+        <v>4.417719336531111</v>
       </c>
       <c r="R14">
-        <v>421.984509609542</v>
+        <v>39.75947402878001</v>
       </c>
       <c r="S14">
-        <v>0.03937745388969825</v>
+        <v>0.004199215924921907</v>
       </c>
       <c r="T14">
-        <v>0.03937745388969826</v>
+        <v>0.004199215924921908</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.3123523333333333</v>
+        <v>0.01787866666666667</v>
       </c>
       <c r="H15">
-        <v>0.9370569999999999</v>
+        <v>0.053636</v>
       </c>
       <c r="I15">
-        <v>0.05411501461132016</v>
+        <v>0.005215938350090445</v>
       </c>
       <c r="J15">
-        <v>0.05411501461132018</v>
+        <v>0.005215938350090446</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>126.9743</v>
       </c>
       <c r="O15">
-        <v>0.2051706239258123</v>
+        <v>0.1379009747488701</v>
       </c>
       <c r="P15">
-        <v>0.2051706239258124</v>
+        <v>0.13790097474887</v>
       </c>
       <c r="Q15">
-        <v>13.22023962612222</v>
+        <v>0.7567103949777778</v>
       </c>
       <c r="R15">
-        <v>118.9821566351</v>
+        <v>6.8103935548</v>
       </c>
       <c r="S15">
-        <v>0.01110281131155901</v>
+        <v>0.0007192829827074854</v>
       </c>
       <c r="T15">
-        <v>0.01110281131155901</v>
+        <v>0.0007192829827074854</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.3123523333333333</v>
+        <v>0.01787866666666667</v>
       </c>
       <c r="H16">
-        <v>0.9370569999999999</v>
+        <v>0.053636</v>
       </c>
       <c r="I16">
-        <v>0.05411501461132016</v>
+        <v>0.005215938350090445</v>
       </c>
       <c r="J16">
-        <v>0.05411501461132018</v>
+        <v>0.005215938350090446</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.915377333333334</v>
+        <v>11.590146</v>
       </c>
       <c r="N16">
-        <v>26.746132</v>
+        <v>34.770438</v>
       </c>
       <c r="O16">
-        <v>0.04321756914621411</v>
+        <v>0.03776258103132013</v>
       </c>
       <c r="P16">
-        <v>0.04321756914621412</v>
+        <v>0.03776258103132013</v>
       </c>
       <c r="Q16">
-        <v>2.784738912613777</v>
+        <v>0.207216356952</v>
       </c>
       <c r="R16">
-        <v>25.062650213524</v>
+        <v>1.864947212568</v>
       </c>
       <c r="S16">
-        <v>0.002338719385813116</v>
+        <v>0.0001969672945996607</v>
       </c>
       <c r="T16">
-        <v>0.002338719385813117</v>
+        <v>0.0001969672945996607</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.3123523333333333</v>
+        <v>0.01787866666666667</v>
       </c>
       <c r="H17">
-        <v>0.9370569999999999</v>
+        <v>0.053636</v>
       </c>
       <c r="I17">
-        <v>0.05411501461132016</v>
+        <v>0.005215938350090445</v>
       </c>
       <c r="J17">
-        <v>0.05411501461132018</v>
+        <v>0.005215938350090446</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.940565666666667</v>
+        <v>5.912082333333333</v>
       </c>
       <c r="N17">
-        <v>14.821697</v>
+        <v>17.736247</v>
       </c>
       <c r="O17">
-        <v>0.02394954586187395</v>
+        <v>0.01926252595751047</v>
       </c>
       <c r="P17">
-        <v>0.02394954586187395</v>
+        <v>0.01926252595751047</v>
       </c>
       <c r="Q17">
-        <v>1.543197213969889</v>
+        <v>0.1057001493435556</v>
       </c>
       <c r="R17">
-        <v>13.888774925729</v>
+        <v>0.951301344092</v>
       </c>
       <c r="S17">
-        <v>0.001296030024249791</v>
+        <v>0.0001004721478613915</v>
       </c>
       <c r="T17">
-        <v>0.001296030024249792</v>
+        <v>0.0001004721478613916</v>
       </c>
     </row>
   </sheetData>
